--- a/config.xlsx
+++ b/config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://industriasvenado-my.sharepoint.com/personal/felipevillarroel_grupovenado_com/Documents/Proyecto Automatización Procesos Contables y Tesoreria/Bot1/SapHunter/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unipe-my.sharepoint.com/personal/20131022b_uni_pe/Documents/Venado/Cris/SapHunter/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="55" documentId="13_ncr:1_{FA8662B7-E1AF-4762-8F68-B22EDC6FF81C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{76F9B671-62DE-4BA5-828B-231FDAE847CB}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{D91EB278-5646-432A-8067-B9B70D65792B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{827857C4-2A54-4C03-8D40-6A7D2211AB41}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="bancos" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">cuentas!$A$1:$K$37</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,12 +28,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -41,340 +38,352 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="113">
+  <si>
+    <t>BCP</t>
+  </si>
+  <si>
+    <t>BISA</t>
+  </si>
+  <si>
+    <t>UNION</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>B20</t>
+  </si>
+  <si>
+    <t>A18</t>
+  </si>
+  <si>
+    <t>B16</t>
+  </si>
+  <si>
+    <t>NombreArchivo</t>
+  </si>
+  <si>
+    <t>banco union.xlsx</t>
+  </si>
+  <si>
+    <t>banco bcp.xlsx</t>
+  </si>
+  <si>
+    <t>banco bisa.xlsx</t>
+  </si>
+  <si>
+    <t>A6</t>
+  </si>
+  <si>
+    <t>10000020161539</t>
+  </si>
+  <si>
+    <t>2015026265385</t>
+  </si>
+  <si>
+    <t>A13</t>
+  </si>
+  <si>
+    <t>B13</t>
+  </si>
+  <si>
+    <t>banco mercantill.xlsx</t>
+  </si>
+  <si>
+    <t>4010066211</t>
+  </si>
+  <si>
+    <t>FASSIL EXTRACTOS.xlsx</t>
+  </si>
+  <si>
+    <t>620210</t>
+  </si>
+  <si>
+    <t>2041320635</t>
+  </si>
+  <si>
+    <t>0100070014</t>
+  </si>
   <si>
     <t>CeldaPeriodo</t>
   </si>
   <si>
+    <t>NroDocumCol</t>
+  </si>
+  <si>
+    <t>CreditCol</t>
+  </si>
+  <si>
+    <t>DebitCol</t>
+  </si>
+  <si>
+    <t>ImporteCol</t>
+  </si>
+  <si>
+    <t>SaldoCol</t>
+  </si>
+  <si>
+    <t>NombreCol</t>
+  </si>
+  <si>
+    <t>DescripcionCol</t>
+  </si>
+  <si>
+    <t>CuentaCol</t>
+  </si>
+  <si>
+    <t>NombreHoja</t>
+  </si>
+  <si>
     <t>MaxRowCol</t>
   </si>
   <si>
-    <t>NroDocumCol</t>
-  </si>
-  <si>
-    <t>CreditCol</t>
-  </si>
-  <si>
-    <t>DebitCol</t>
-  </si>
-  <si>
-    <t>ImporteCol</t>
-  </si>
-  <si>
-    <t>SaldoCol</t>
-  </si>
-  <si>
-    <t>NombreCol</t>
-  </si>
-  <si>
-    <t>DescripcionCol</t>
-  </si>
-  <si>
     <t>CodBancario</t>
   </si>
   <si>
-    <t xml:space="preserve"> Info. Complementaria</t>
-  </si>
-  <si>
-    <t>CuentaCol</t>
-  </si>
-  <si>
     <t>FormatoFecha</t>
   </si>
   <si>
+    <t>%Y-%m-%d %H:%M:%S</t>
+  </si>
+  <si>
+    <t>%d/%m/%Y</t>
+  </si>
+  <si>
+    <t>Sheet</t>
+  </si>
+  <si>
+    <t>ECONOMICO EXTRACTO.xlsx</t>
+  </si>
+  <si>
+    <t>Extracto</t>
+  </si>
+  <si>
     <t>NombreComercial</t>
   </si>
   <si>
+    <t>SOCIEDAD</t>
+  </si>
+  <si>
+    <t>ENTIDAD FINANCIERA</t>
+  </si>
+  <si>
+    <t>NRO.CUENTA</t>
+  </si>
+  <si>
+    <t>Sociedad (Campo de SAP)</t>
+  </si>
+  <si>
+    <t>Banco propio (Campo de SAP)</t>
+  </si>
+  <si>
+    <t>MONEDA</t>
+  </si>
+  <si>
+    <t>RESPONSABLE</t>
+  </si>
+  <si>
+    <t>PERIODICIDAD DE CARGA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OBSERVACIONES </t>
+  </si>
+  <si>
+    <t>Grupo Venado</t>
+  </si>
+  <si>
     <t>Union</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>10000020161539</t>
-  </si>
-  <si>
-    <t>%Y-%m-%d %H:%M:%S</t>
-  </si>
-  <si>
-    <t>BCP</t>
-  </si>
-  <si>
-    <t>B13</t>
-  </si>
-  <si>
-    <t>2015026265385</t>
-  </si>
-  <si>
-    <t>%d/%m/%Y</t>
+    <t>GV01</t>
+  </si>
+  <si>
+    <t>BUN03</t>
+  </si>
+  <si>
+    <t>Bolivianos</t>
+  </si>
+  <si>
+    <t>Patricia Segurondo</t>
+  </si>
+  <si>
+    <t>Diaria</t>
+  </si>
+  <si>
+    <t>BCP01</t>
   </si>
   <si>
     <t>Mercantil</t>
   </si>
   <si>
-    <t>A13</t>
-  </si>
-  <si>
-    <t>4010066211</t>
+    <t>BMS01</t>
+  </si>
+  <si>
+    <t>BMS02</t>
+  </si>
+  <si>
+    <t>BMS03</t>
+  </si>
+  <si>
+    <t>BMS04</t>
+  </si>
+  <si>
+    <t>BMS11</t>
+  </si>
+  <si>
+    <t>Dólares</t>
+  </si>
+  <si>
+    <t>Bisa</t>
+  </si>
+  <si>
+    <t>BIS01</t>
+  </si>
+  <si>
+    <t>Vemassa</t>
+  </si>
+  <si>
+    <t>VEM1</t>
+  </si>
+  <si>
+    <t>BIS02</t>
+  </si>
+  <si>
+    <t>Mavid Chirinos</t>
+  </si>
+  <si>
+    <t>BIS03</t>
+  </si>
+  <si>
+    <t>BIS04</t>
+  </si>
+  <si>
+    <t>BIS05</t>
+  </si>
+  <si>
+    <t>BIS06</t>
+  </si>
+  <si>
+    <t>BIS07</t>
+  </si>
+  <si>
+    <t>BIS08</t>
+  </si>
+  <si>
+    <t>BIS09</t>
+  </si>
+  <si>
+    <t>BIS10</t>
+  </si>
+  <si>
+    <t>BIS11</t>
+  </si>
+  <si>
+    <t>BIS12</t>
+  </si>
+  <si>
+    <t>BUN02</t>
+  </si>
+  <si>
+    <t>Emilene Ortiz</t>
   </si>
   <si>
     <t>Fassil</t>
   </si>
   <si>
-    <t>B20</t>
-  </si>
-  <si>
-    <t>620210</t>
+    <t>FAS02</t>
+  </si>
+  <si>
+    <t>Prodem</t>
+  </si>
+  <si>
+    <t>BPR02</t>
+  </si>
+  <si>
+    <t>BCP04</t>
   </si>
   <si>
     <t>Económico</t>
   </si>
   <si>
-    <t>A18</t>
-  </si>
-  <si>
-    <t>2041320635</t>
-  </si>
-  <si>
-    <t>Bisa</t>
+    <t>BEC01</t>
+  </si>
+  <si>
+    <t>BMS05</t>
+  </si>
+  <si>
+    <t>BMS06</t>
+  </si>
+  <si>
+    <t>BMS08</t>
+  </si>
+  <si>
+    <t>BMS12</t>
+  </si>
+  <si>
+    <t>AUN NO HABILITADA EN SISTEMA</t>
+  </si>
+  <si>
+    <t>CORRELATIVO</t>
+  </si>
+  <si>
+    <t>CUENTA</t>
+  </si>
+  <si>
+    <t>CONTRASEÑA</t>
+  </si>
+  <si>
+    <t>AMBIENTE</t>
+  </si>
+  <si>
+    <t>BOT</t>
+  </si>
+  <si>
+    <t>botpruebas**</t>
+  </si>
+  <si>
+    <t>QAS - EHP8 on HANA</t>
+  </si>
+  <si>
+    <t>VARIABLE</t>
+  </si>
+  <si>
+    <t>VALOR</t>
+  </si>
+  <si>
+    <t>rutaSap</t>
+  </si>
+  <si>
+    <t>ABR MONEDA</t>
+  </si>
+  <si>
+    <t>BOB</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>MERCANTIL</t>
   </si>
   <si>
     <t>A2</t>
   </si>
   <si>
-    <t>0100070014</t>
-  </si>
-  <si>
-    <t>B16</t>
-  </si>
-  <si>
-    <t>VARIABLE</t>
-  </si>
-  <si>
-    <t>VALOR</t>
-  </si>
-  <si>
-    <t>PLANTILLAS</t>
-  </si>
-  <si>
-    <t>CARGA_SAP</t>
-  </si>
-  <si>
-    <t>COMPLETO</t>
-  </si>
-  <si>
-    <t>CUENTA</t>
-  </si>
-  <si>
-    <t>miturralde</t>
-  </si>
-  <si>
-    <t>Simple</t>
-  </si>
-  <si>
-    <t>CONTRASEÑA</t>
-  </si>
-  <si>
-    <t>Robot2022**</t>
+    <t>ModoValidacion</t>
   </si>
   <si>
     <t>Doble</t>
   </si>
   <si>
-    <t>AMBIENTE</t>
-  </si>
-  <si>
-    <t>PRD SAP HANA</t>
-  </si>
-  <si>
-    <t>Ninguna</t>
-  </si>
-  <si>
-    <t>rutaSap</t>
-  </si>
-  <si>
-    <t>C:\Program Files (x86)\SAP\FrontEnd\SAPgui\saplogon.exe</t>
-  </si>
-  <si>
-    <t>ModoValidacion</t>
-  </si>
-  <si>
-    <t>fechaExtracto</t>
-  </si>
-  <si>
-    <t>Ejecucion</t>
-  </si>
-  <si>
-    <t>CORRELATIVO</t>
-  </si>
-  <si>
-    <t>SOCIEDAD</t>
-  </si>
-  <si>
-    <t>ENTIDAD FINANCIERA</t>
-  </si>
-  <si>
-    <t>NRO.CUENTA</t>
-  </si>
-  <si>
-    <t>Sociedad (Campo de SAP)</t>
-  </si>
-  <si>
-    <t>Banco propio (Campo de SAP)</t>
-  </si>
-  <si>
-    <t>MONEDA</t>
-  </si>
-  <si>
-    <t>ABR MONEDA</t>
-  </si>
-  <si>
-    <t>RESPONSABLE</t>
-  </si>
-  <si>
-    <t>PERIODICIDAD DE CARGA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OBSERVACIONES </t>
-  </si>
-  <si>
-    <t>Grupo Venado</t>
-  </si>
-  <si>
-    <t>GV01</t>
-  </si>
-  <si>
-    <t>BUN03</t>
-  </si>
-  <si>
-    <t>Bolivianos</t>
-  </si>
-  <si>
-    <t>BOB</t>
-  </si>
-  <si>
-    <t>Patricia Segurondo</t>
-  </si>
-  <si>
-    <t>Diaria</t>
-  </si>
-  <si>
-    <t>BCP01</t>
-  </si>
-  <si>
-    <t>BMS01</t>
-  </si>
-  <si>
-    <t>BMS02</t>
-  </si>
-  <si>
-    <t>BMS03</t>
-  </si>
-  <si>
-    <t>BMS04</t>
-  </si>
-  <si>
-    <t>BMS11</t>
-  </si>
-  <si>
-    <t>Dólares</t>
-  </si>
-  <si>
-    <t>USD</t>
-  </si>
-  <si>
-    <t>BIS01</t>
-  </si>
-  <si>
-    <t>Vemassa</t>
-  </si>
-  <si>
-    <t>VEM1</t>
-  </si>
-  <si>
-    <t>BIS02</t>
-  </si>
-  <si>
-    <t>Mavid Chirinos</t>
-  </si>
-  <si>
-    <t>BIS03</t>
-  </si>
-  <si>
-    <t>BIS04</t>
-  </si>
-  <si>
-    <t>BIS05</t>
-  </si>
-  <si>
-    <t>BIS06</t>
-  </si>
-  <si>
-    <t>BIS07</t>
-  </si>
-  <si>
-    <t>BIS08</t>
-  </si>
-  <si>
-    <t>BIS09</t>
-  </si>
-  <si>
-    <t>BIS10</t>
-  </si>
-  <si>
-    <t>BIS11</t>
-  </si>
-  <si>
-    <t>BIS12</t>
-  </si>
-  <si>
-    <t>BUN02</t>
-  </si>
-  <si>
-    <t>Emilene Ortiz</t>
-  </si>
-  <si>
-    <t>FAS02</t>
-  </si>
-  <si>
-    <t>Prodem</t>
-  </si>
-  <si>
-    <t>BPR02</t>
-  </si>
-  <si>
-    <t>BCP04</t>
-  </si>
-  <si>
-    <t>BEC01</t>
-  </si>
-  <si>
-    <t>BMS05</t>
-  </si>
-  <si>
-    <t>BMS06</t>
-  </si>
-  <si>
-    <t>BMS08</t>
-  </si>
-  <si>
-    <t>BMS12</t>
-  </si>
-  <si>
-    <t>AUN NO HABILITADA EN SISTEMA</t>
-  </si>
-  <si>
-    <t>CAMPO ITF</t>
-  </si>
-  <si>
-    <t>A6</t>
+    <t>D:\Program Files (x86)\ERPSAP\SAPgui\saplogon.exe</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -405,13 +414,6 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -481,7 +483,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -494,8 +496,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -776,87 +776,85 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P9"/>
+  <dimension ref="A1:P8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.28515625" customWidth="1"/>
-    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.85546875" customWidth="1"/>
-    <col min="14" max="14" width="20.42578125" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="18.42578125" customWidth="1"/>
+    <col min="13" max="13" width="24.7109375" customWidth="1"/>
+    <col min="14" max="14" width="20.42578125" customWidth="1"/>
     <col min="15" max="15" width="20.7109375" customWidth="1"/>
-    <col min="16" max="16" width="17.28515625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B1" s="10" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="I1" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="10" t="s">
-        <v>10</v>
-      </c>
       <c r="M1" s="10" t="s">
-        <v>107</v>
+        <v>31</v>
       </c>
       <c r="N1" s="10" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="O1" s="10" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="P1" s="10" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="B2" t="s">
-        <v>108</v>
+        <v>11</v>
       </c>
       <c r="C2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2">
         <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G2">
         <v>5</v>
@@ -865,36 +863,36 @@
         <v>6</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="J2">
         <v>3</v>
       </c>
       <c r="K2" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="L2" t="s">
-        <v>15</v>
-      </c>
-      <c r="M2">
-        <v>3</v>
+        <v>8</v>
+      </c>
+      <c r="M2" t="s">
+        <v>2</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="P2" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -903,10 +901,10 @@
         <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G3">
         <v>20</v>
@@ -915,36 +913,36 @@
         <v>23</v>
       </c>
       <c r="I3" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="J3">
         <v>9</v>
       </c>
       <c r="K3" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="L3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M3">
         <v>9</v>
       </c>
+      <c r="M3" t="s">
+        <v>0</v>
+      </c>
       <c r="N3" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="O3" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="P3" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -959,7 +957,7 @@
         <v>19</v>
       </c>
       <c r="G4" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="H4">
         <v>21</v>
@@ -974,27 +972,27 @@
         <v>3</v>
       </c>
       <c r="L4" t="s">
-        <v>15</v>
-      </c>
-      <c r="M4">
-        <v>10</v>
+        <v>16</v>
+      </c>
+      <c r="M4" t="s">
+        <v>108</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="O4" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="P4" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>25</v>
+        <v>83</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="C5">
         <v>2</v>
@@ -1009,42 +1007,42 @@
         <v>8</v>
       </c>
       <c r="G5" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="H5">
         <v>10</v>
       </c>
       <c r="I5" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="J5">
         <v>11</v>
       </c>
       <c r="K5" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="L5" t="s">
-        <v>15</v>
-      </c>
-      <c r="M5">
-        <v>6</v>
+        <v>18</v>
+      </c>
+      <c r="M5" t="s">
+        <v>37</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="O5" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="P5" t="s">
-        <v>25</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>28</v>
+        <v>88</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -1053,10 +1051,10 @@
         <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="F6" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G6">
         <v>12</v>
@@ -1065,83 +1063,83 @@
         <v>13</v>
       </c>
       <c r="I6" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="J6">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="K6" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="L6" t="s">
-        <v>15</v>
-      </c>
-      <c r="M6">
-        <v>5</v>
+        <v>38</v>
+      </c>
+      <c r="M6" t="s">
+        <v>39</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="P6" t="s">
-        <v>28</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D7">
+        <v>11</v>
+      </c>
+      <c r="E7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7">
+        <v>6</v>
+      </c>
+      <c r="H7">
+        <v>7</v>
+      </c>
+      <c r="I7" t="s">
+        <v>3</v>
+      </c>
+      <c r="J7">
+        <v>5</v>
+      </c>
+      <c r="K7" t="s">
+        <v>3</v>
+      </c>
+      <c r="L7" t="s">
         <v>10</v>
       </c>
-      <c r="E7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7">
-        <v>5</v>
-      </c>
-      <c r="H7">
-        <v>6</v>
-      </c>
-      <c r="I7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J7">
-        <v>4</v>
-      </c>
-      <c r="K7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L7">
-        <v>7</v>
-      </c>
-      <c r="M7">
-        <v>4</v>
+      <c r="M7" t="s">
+        <v>1</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="P7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>32</v>
+        <v>109</v>
       </c>
       <c r="C8">
         <v>3</v>
@@ -1150,10 +1148,10 @@
         <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="F8" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G8">
         <v>5</v>
@@ -1162,45 +1160,13 @@
         <v>6</v>
       </c>
       <c r="I8" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="J8">
         <v>4</v>
       </c>
       <c r="K8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9">
-        <v>4</v>
-      </c>
-      <c r="D9">
-        <v>11</v>
-      </c>
-      <c r="E9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9">
-        <v>6</v>
-      </c>
-      <c r="H9">
-        <v>7</v>
-      </c>
-      <c r="I9" t="s">
-        <v>15</v>
-      </c>
-      <c r="J9">
-        <v>5</v>
-      </c>
-      <c r="K9" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1211,112 +1177,66 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36875E07-AEFE-4371-8D99-4CC952440A1F}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" customWidth="1"/>
-    <col min="2" max="2" width="21.5703125" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" customWidth="1"/>
+    <col min="2" max="2" width="54.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>35</v>
+        <v>102</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>96</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>97</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>98</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>104</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>51</v>
+        <v>110</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B7" s="13"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B8" t="s">
-        <v>39</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6" xr:uid="{694602D6-F8AF-4958-A87C-CDA5EC5C67E2}">
-      <formula1>$F$2:$F$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8" xr:uid="{EAD20FE9-DF26-4894-8B3D-8695BC53B722}">
-      <formula1>$D$1:$F$1</formula1>
-    </dataValidation>
-    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7" xr:uid="{3CCE5B96-7247-4CA2-A071-36B35F3E2ADA}">
-      <formula1>36526</formula1>
-      <formula2>47818</formula2>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1326,48 +1246,48 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E45A073E-2743-4135-ADF5-D2E575AFBED5}">
   <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="26.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>54</v>
+        <v>95</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>61</v>
+        <v>105</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -1375,31 +1295,31 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="D2" s="7">
         <v>120161539</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>69</v>
+        <v>106</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="K2" s="6"/>
     </row>
@@ -1408,31 +1328,31 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="D3" s="8">
         <v>2015026265385</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>69</v>
+        <v>106</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="K3" s="6"/>
     </row>
@@ -1441,31 +1361,31 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="D4" s="7">
         <v>4010501329</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>69</v>
+        <v>106</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="K4" s="6"/>
     </row>
@@ -1474,31 +1394,31 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="D5" s="7">
         <v>4010066211</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>69</v>
+        <v>106</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="K5" s="6"/>
     </row>
@@ -1507,31 +1427,31 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="D6" s="7">
         <v>4010599686</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>69</v>
+        <v>106</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="K6" s="6"/>
     </row>
@@ -1540,31 +1460,31 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="D7" s="7">
         <v>4010374232</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>69</v>
+        <v>106</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="K7" s="6"/>
     </row>
@@ -1573,31 +1493,31 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="D8" s="7">
         <v>4010395865</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="K8" s="6"/>
     </row>
@@ -1606,31 +1526,31 @@
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>65</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>31</v>
       </c>
       <c r="D9" s="7">
         <v>100070014</v>
       </c>
       <c r="E9" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="F9" s="6" t="s">
-        <v>80</v>
-      </c>
       <c r="G9" s="6" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>69</v>
+        <v>106</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="K9" s="6"/>
     </row>
@@ -1639,31 +1559,31 @@
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
         <v>7015089120389</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>69</v>
+        <v>106</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="K10" s="6"/>
     </row>
@@ -1672,31 +1592,31 @@
         <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>65</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>31</v>
       </c>
       <c r="D11" s="7">
         <v>100072017</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="K11" s="6"/>
     </row>
@@ -1705,31 +1625,31 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>65</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>31</v>
       </c>
       <c r="D12" s="7">
         <v>100070022</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>69</v>
+        <v>106</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="K12" s="6"/>
     </row>
@@ -1738,31 +1658,31 @@
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>65</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>31</v>
       </c>
       <c r="D13" s="7">
         <v>100070031</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>69</v>
+        <v>106</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="K13" s="6"/>
     </row>
@@ -1771,31 +1691,31 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>65</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>31</v>
       </c>
       <c r="D14" s="7">
         <v>100070049</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>69</v>
+        <v>106</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="K14" s="6"/>
     </row>
@@ -1804,31 +1724,31 @@
         <v>14</v>
       </c>
       <c r="B15" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>65</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>31</v>
       </c>
       <c r="D15" s="7">
         <v>100070057</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>69</v>
+        <v>106</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="K15" s="6"/>
     </row>
@@ -1837,31 +1757,31 @@
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>65</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>31</v>
       </c>
       <c r="D16" s="7">
         <v>100070065</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>69</v>
+        <v>106</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="K16" s="6"/>
     </row>
@@ -1870,31 +1790,31 @@
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>65</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>31</v>
       </c>
       <c r="D17" s="7">
         <v>100070073</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>69</v>
+        <v>106</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="K17" s="6"/>
     </row>
@@ -1903,31 +1823,31 @@
         <v>17</v>
       </c>
       <c r="B18" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>65</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>31</v>
       </c>
       <c r="D18" s="7">
         <v>100070081</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>69</v>
+        <v>106</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="K18" s="6"/>
     </row>
@@ -1936,31 +1856,31 @@
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>65</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>31</v>
       </c>
       <c r="D19" s="7">
         <v>100070090</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>69</v>
+        <v>106</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="K19" s="6"/>
     </row>
@@ -1969,31 +1889,31 @@
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="6" t="s">
         <v>65</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>31</v>
       </c>
       <c r="D20" s="7">
         <v>100070103</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>69</v>
+        <v>106</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="K20" s="6"/>
     </row>
@@ -2002,31 +1922,31 @@
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" s="6" t="s">
         <v>65</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>31</v>
       </c>
       <c r="D21" s="7">
         <v>100070111</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>69</v>
+        <v>106</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="J21" s="6" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="K21" s="6"/>
     </row>
@@ -2035,31 +1955,31 @@
         <v>21</v>
       </c>
       <c r="B22" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" s="6" t="s">
         <v>65</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>31</v>
       </c>
       <c r="D22" s="8">
         <v>100070049</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>69</v>
+        <v>106</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="J22" s="9" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="K22" s="6"/>
     </row>
@@ -2068,31 +1988,31 @@
         <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" s="6" t="s">
         <v>65</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>31</v>
       </c>
       <c r="D23" s="7">
         <v>100070065</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>69</v>
+        <v>106</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="J23" s="6" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="K23" s="6"/>
     </row>
@@ -2101,31 +2021,31 @@
         <v>23</v>
       </c>
       <c r="B24" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" s="6" t="s">
         <v>65</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>31</v>
       </c>
       <c r="D24" s="7">
         <v>100070090</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>69</v>
+        <v>106</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="J24" s="6" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="K24" s="6"/>
     </row>
@@ -2134,31 +2054,31 @@
         <v>24</v>
       </c>
       <c r="B25" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="6" t="s">
         <v>65</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>31</v>
       </c>
       <c r="D25" s="7">
         <v>100070103</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>69</v>
+        <v>106</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="J25" s="6" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="K25" s="6"/>
     </row>
@@ -2167,31 +2087,31 @@
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" s="6" t="s">
         <v>65</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>31</v>
       </c>
       <c r="D26" s="7">
         <v>100070111</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>69</v>
+        <v>106</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="J26" s="6" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="K26" s="6"/>
     </row>
@@ -2200,31 +2120,31 @@
         <v>26</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="D27" s="7">
-        <v>120271437</v>
+        <v>2120271437</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>69</v>
+        <v>106</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="J27" s="6" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="K27" s="6"/>
     </row>
@@ -2233,31 +2153,31 @@
         <v>27</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>25</v>
+        <v>83</v>
       </c>
       <c r="D28" s="7">
         <v>620210</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>69</v>
+        <v>106</v>
       </c>
       <c r="I28" s="6" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="J28" s="6" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="K28" s="6"/>
     </row>
@@ -2266,31 +2186,31 @@
         <v>28</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="D29" s="7">
         <v>61121267099</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>69</v>
+        <v>106</v>
       </c>
       <c r="I29" s="6" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="J29" s="6" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="K29" s="6"/>
     </row>
@@ -2299,31 +2219,31 @@
         <v>29</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="D30" s="7">
         <v>7015054675359</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>69</v>
+        <v>106</v>
       </c>
       <c r="I30" s="6" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="J30" s="6" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="K30" s="6"/>
     </row>
@@ -2332,31 +2252,31 @@
         <v>30</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>28</v>
+        <v>88</v>
       </c>
       <c r="D31" s="7">
         <v>2041320635</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>69</v>
+        <v>106</v>
       </c>
       <c r="I31" s="6" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="J31" s="6" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="K31" s="6"/>
     </row>
@@ -2365,31 +2285,31 @@
         <v>31</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="D32" s="7">
         <v>4010132476</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>69</v>
+        <v>106</v>
       </c>
       <c r="I32" s="6" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="J32" s="6" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="K32" s="6"/>
     </row>
@@ -2398,31 +2318,31 @@
         <v>32</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="D33" s="7">
         <v>4010542984</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>69</v>
+        <v>106</v>
       </c>
       <c r="I33" s="6" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="J33" s="6" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="K33" s="6"/>
     </row>
@@ -2431,31 +2351,31 @@
         <v>33</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="D34" s="7">
         <v>4010678183</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>69</v>
+        <v>106</v>
       </c>
       <c r="I34" s="6" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="J34" s="6" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="K34" s="6"/>
     </row>
@@ -2464,31 +2384,31 @@
         <v>34</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="D35" s="7">
         <v>4010640108</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="I35" s="6" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="J35" s="6" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="K35" s="6"/>
     </row>
@@ -2497,31 +2417,31 @@
         <v>35</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="D36" s="7">
         <v>7934540012</v>
       </c>
       <c r="E36" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="I36" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="F36" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="G36" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="H36" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="I36" s="6" t="s">
-        <v>96</v>
-      </c>
       <c r="J36" s="6" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="K36" s="6"/>
     </row>
@@ -2530,51 +2450,51 @@
         <v>36</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="D37" s="7">
         <v>7934542015</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="F37" s="6"/>
       <c r="G37" s="6" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="H37" s="6" t="s">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="I37" s="6" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="J37" s="6" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="K37" s="6" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:K37" xr:uid="{E45A073E-2743-4135-ADF5-D2E575AFBED5}"/>
   <dataValidations count="5">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Haz clic e introduce un valor de intervalo 'Hoja 1'!Q1:Q15" sqref="C2:C37" xr:uid="{70345916-44DB-4C25-A750-ECDBBC8F479B}">
-      <formula1>$V$1:$V$13</formula1>
+      <formula1>$W$1:$W$13</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Haz clic e introduce un valor de intervalo 'Hoja 1'!Q1:Q15" sqref="B23:B37 B2:B21" xr:uid="{F1E573BA-48E9-4125-BD9F-743D1570CEC6}">
-      <formula1>$T$1:$T$2</formula1>
+      <formula1>$U$1:$U$2</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Haz clic e introduce un valor de intervalo 'Hoja 1'!S1:S3" sqref="G2:G21 G23:G37" xr:uid="{75F127BD-1FBD-4688-945D-992B20069FF2}">
-      <formula1>$X$1:$X$3</formula1>
+      <formula1>$Y$1:$Y$3</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Haz clic e introduce un valor de intervalo 'Hoja 1'!U1:U5" sqref="J2:J21 J23:J37" xr:uid="{D42B7124-97FF-4AF1-B684-256BBEFE1469}">
-      <formula1>$Z$1:$Z$5</formula1>
+      <formula1>$AA$1:$AA$5</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Haz clic e introduce un valor de intervalo 'Hoja 1'!W1:W3" sqref="I2:I37" xr:uid="{7DD362FA-1206-4C84-8DED-9033E5CB67AA}">
-      <formula1>$AB$1:$AB$3</formula1>
+      <formula1>$AC$1:$AC$3</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
